--- a/resources/experiment 1/predictions/single/LinearRegression/incidence/Angina (INC).xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/incidence/Angina (INC).xlsx
@@ -463,7 +463,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.402108011380591</v>
+        <v>5.402108011380589</v>
       </c>
       <c r="B3" t="n">
         <v>0.1477877982834814</v>
@@ -488,7 +488,7 @@
         <v>6.522733173399667</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1979042098357569</v>
+        <v>0.1979042098357568</v>
       </c>
       <c r="C5" t="n">
         <v>19.91926490469237</v>
@@ -521,7 +521,7 @@
         <v>26.73851183323134</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8716052132188971</v>
+        <v>0.8716052132188972</v>
       </c>
       <c r="C8" t="n">
         <v>71.24928656619326</v>
@@ -543,7 +543,7 @@
         <v>26.76473915200361</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9216749785010359</v>
+        <v>0.9216749785010361</v>
       </c>
       <c r="C10" t="n">
         <v>71.60725150703981</v>
@@ -576,7 +576,7 @@
         <v>25.71186575952123</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9094988639007723</v>
+        <v>0.9094988639007724</v>
       </c>
       <c r="C13" t="n">
         <v>69.15070091840124</v>
@@ -598,7 +598,7 @@
         <v>7.643358335418743</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2480206213880324</v>
+        <v>0.2480206213880323</v>
       </c>
       <c r="C15" t="n">
         <v>22.90208890579198</v>
@@ -631,7 +631,7 @@
         <v>8.848032829874604</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2017897842041568</v>
+        <v>0.2017897842041567</v>
       </c>
       <c r="C18" t="n">
         <v>25.37849024015174</v>
@@ -642,10 +642,10 @@
         <v>21.16061291100027</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7431812328155557</v>
+        <v>0.7431812328155556</v>
       </c>
       <c r="C19" t="n">
-        <v>57.53617111151063</v>
+        <v>57.53617111151062</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>13.84932160819604</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4394431045195234</v>
+        <v>0.4394431045195233</v>
       </c>
       <c r="C20" t="n">
-        <v>38.63288977348547</v>
+        <v>38.63288977348548</v>
       </c>
     </row>
     <row r="21">
@@ -664,7 +664,7 @@
         <v>10.37716947092974</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3353713533167092</v>
+        <v>0.3353713533167091</v>
       </c>
       <c r="C21" t="n">
         <v>29.83287549607995</v>
@@ -730,7 +730,7 @@
         <v>27.18854776303181</v>
       </c>
       <c r="B27" t="n">
-        <v>0.942940902449047</v>
+        <v>0.9429409024490472</v>
       </c>
       <c r="C27" t="n">
         <v>72.88915629263636</v>
@@ -749,10 +749,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>9.476097180420833</v>
+        <v>9.476097180420835</v>
       </c>
       <c r="B29" t="n">
-        <v>0.2647882869323064</v>
+        <v>0.2647882869323063</v>
       </c>
       <c r="C29" t="n">
         <v>27.3961756531626</v>
@@ -774,7 +774,7 @@
         <v>22.74757156571992</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7303457879098182</v>
+        <v>0.7303457879098183</v>
       </c>
       <c r="C31" t="n">
         <v>61.12616875985243</v>
@@ -785,7 +785,7 @@
         <v>23.85289959574686</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8426614330743595</v>
+        <v>0.8426614330743596</v>
       </c>
       <c r="C32" t="n">
         <v>64.29864923018408</v>
@@ -818,7 +818,7 @@
         <v>12.93295218569499</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4310592717473864</v>
+        <v>0.4310592717473863</v>
       </c>
       <c r="C35" t="n">
         <v>36.38584639980017</v>
@@ -829,7 +829,7 @@
         <v>16.36357987219687</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5472604912803276</v>
+        <v>0.5472604912803275</v>
       </c>
       <c r="C36" t="n">
         <v>45.01755220559119</v>
@@ -840,7 +840,7 @@
         <v>11.29353889343079</v>
       </c>
       <c r="B37" t="n">
-        <v>0.3437551860888462</v>
+        <v>0.3437551860888461</v>
       </c>
       <c r="C37" t="n">
         <v>32.07991886976527</v>
@@ -862,7 +862,7 @@
         <v>16.78738848322507</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5685264152283387</v>
+        <v>0.5685264152283386</v>
       </c>
       <c r="C39" t="n">
         <v>46.29945699118775</v>
@@ -873,7 +873,7 @@
         <v>9.612601150402174</v>
       </c>
       <c r="B40" t="n">
-        <v>0.268580568760433</v>
+        <v>0.2685805687604329</v>
       </c>
       <c r="C40" t="n">
         <v>27.60568286811585</v>
@@ -928,7 +928,7 @@
         <v>22.43303917499282</v>
       </c>
       <c r="B45" t="n">
-        <v>0.7348906925836919</v>
+        <v>0.734890692583692</v>
       </c>
       <c r="C45" t="n">
         <v>60.53884585833144</v>
@@ -950,7 +950,7 @@
         <v>28.2414211555142</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9551170170493106</v>
+        <v>0.9551170170493107</v>
       </c>
       <c r="C47" t="n">
         <v>75.34570688127492</v>
@@ -969,10 +969,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>8.518203307155376</v>
+        <v>8.518203307155375</v>
       </c>
       <c r="B49" t="n">
-        <v>0.2685339224902964</v>
+        <v>0.2685339224902963</v>
       </c>
       <c r="C49" t="n">
         <v>24.98082380786278</v>
@@ -983,10 +983,10 @@
         <v>10.93748205193928</v>
       </c>
       <c r="B50" t="n">
-        <v>0.360429559092847</v>
+        <v>0.3604295590928468</v>
       </c>
       <c r="C50" t="n">
-        <v>31.32428749662975</v>
+        <v>31.32428749662976</v>
       </c>
     </row>
     <row r="51">
@@ -994,7 +994,7 @@
         <v>5.758164852872097</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1311134252794807</v>
+        <v>0.1311134252794806</v>
       </c>
       <c r="C51" t="n">
         <v>17.69207227672827</v>
@@ -1008,7 +1008,7 @@
         <v>0.7135781223655442</v>
       </c>
       <c r="C52" t="n">
-        <v>56.63208201248181</v>
+        <v>56.63208201248182</v>
       </c>
     </row>
     <row r="53">
@@ -1038,7 +1038,7 @@
         <v>10.5551978916755</v>
       </c>
       <c r="B55" t="n">
-        <v>0.3270341668147089</v>
+        <v>0.3270341668147088</v>
       </c>
       <c r="C55" t="n">
         <v>30.2106911826477</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>24.03092801649262</v>
+        <v>24.03092801649261</v>
       </c>
       <c r="B57" t="n">
-        <v>0.834324246572359</v>
+        <v>0.8343242465723592</v>
       </c>
       <c r="C57" t="n">
         <v>64.67646491675184</v>
@@ -1093,7 +1093,7 @@
         <v>8.381699337174036</v>
       </c>
       <c r="B60" t="n">
-        <v>0.2647416406621698</v>
+        <v>0.2647416406621697</v>
       </c>
       <c r="C60" t="n">
         <v>24.77131659290954</v>
@@ -1104,7 +1104,7 @@
         <v>23.33411146550173</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8054737589680947</v>
+        <v>0.8054737589680948</v>
       </c>
       <c r="C61" t="n">
         <v>62.97554570124878</v>
@@ -1134,10 +1134,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>8.559727757919788</v>
+        <v>8.55972775791979</v>
       </c>
       <c r="B64" t="n">
-        <v>0.2564044541601694</v>
+        <v>0.2564044541601693</v>
       </c>
       <c r="C64" t="n">
         <v>25.14913227947729</v>
@@ -1181,10 +1181,10 @@
         <v>9.638828469174452</v>
       </c>
       <c r="B68" t="n">
-        <v>0.3186503340425719</v>
+        <v>0.3186503340425718</v>
       </c>
       <c r="C68" t="n">
-        <v>27.96364780896239</v>
+        <v>27.9636478089624</v>
       </c>
     </row>
     <row r="69">
@@ -1214,7 +1214,7 @@
         <v>13.42551299716784</v>
       </c>
       <c r="B71" t="n">
-        <v>0.4181771805715123</v>
+        <v>0.4181771805715122</v>
       </c>
       <c r="C71" t="n">
         <v>37.35098498788892</v>
